--- a/Giuseppe/project 5/lab5.xlsx
+++ b/Giuseppe/project 5/lab5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3870717-78DE-41D9-AB89-D479BA5D5463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECB8B0E-2541-4C8B-BBBA-B8EEC0224C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{420F3527-AA47-4232-826E-72FEC2CB875C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{420F3527-AA47-4232-826E-72FEC2CB875C}"/>
   </bookViews>
   <sheets>
     <sheet name="CH3" sheetId="11" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>Pi Greco</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t># of molecules of i</t>
+  </si>
+  <si>
+    <t>A temperature elevate è più probabile che avvenga la dissociazione del metano</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1529,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Keq against temperature</a:t>
+              <a:t>Keq vs temperature</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1581,6 +1584,69 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Keq calcs'!$A$11:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>298.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Keq calcs'!$H$11:$H$28</c:f>
@@ -1670,6 +1736,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3330,33 +3397,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD66158-C753-4509-A45D-C07DAEB430C2}">
   <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="7" customWidth="1"/>
-    <col min="17" max="19" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="34.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="7" customWidth="1"/>
+    <col min="17" max="19" width="14.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="13.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +3449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -3412,7 +3479,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
         <v>29</v>
       </c>
@@ -3423,7 +3490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="54">
         <v>13.69455</v>
       </c>
@@ -3434,7 +3501,7 @@
         <v>6.8445400000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -3445,7 +3512,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -3454,7 +3521,7 @@
       </c>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="57">
         <v>6</v>
       </c>
@@ -3477,7 +3544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>525.17780000000005</v>
       </c>
@@ -3497,7 +3564,7 @@
         <v>3307.5848000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
@@ -3517,7 +3584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="7" cm="1">
         <f t="array" ref="B13">Tabella9314731[Frequenza1]*29979300000</f>
         <v>15744462819540.002</v>
@@ -3543,7 +3610,7 @@
         <v>99159076994640</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
@@ -3569,7 +3636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>298.14999999999998</v>
       </c>
@@ -3602,7 +3669,7 @@
         <v>2.0912832611117471E-14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>400</v>
       </c>
@@ -3635,7 +3702,7 @@
         <v>7.1243918048648887E-11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>500</v>
       </c>
@@ -3668,7 +3735,7 @@
         <v>8.796613532572634E-9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>600</v>
       </c>
@@ -3701,7 +3768,7 @@
         <v>2.2881732798455465E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>700</v>
       </c>
@@ -3734,7 +3801,7 @@
         <v>2.4477131044616973E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>800</v>
       </c>
@@ -3767,7 +3834,7 @@
         <v>1.503471538089265E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>900</v>
       </c>
@@ -3800,7 +3867,7 @@
         <v>6.380991627078838E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>1000</v>
       </c>
@@ -3833,7 +3900,7 @@
         <v>2.0906854399994668E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>1100</v>
       </c>
@@ -3866,7 +3933,7 @@
         <v>5.6737603754868483E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>1200</v>
       </c>
@@ -3899,7 +3966,7 @@
         <v>1.3364885831185034E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>1300</v>
       </c>
@@ -3932,7 +3999,7 @@
         <v>2.8223152885623794E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>1400</v>
       </c>
@@ -3965,7 +4032,7 @@
         <v>5.4674676145643189E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>1500</v>
       </c>
@@ -3998,7 +4065,7 @@
         <v>9.8813403810241278E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>1600</v>
       </c>
@@ -4031,7 +4098,7 @@
         <v>1.6871844007961812E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>1700</v>
       </c>
@@ -4064,7 +4131,7 @@
         <v>2.7478949668165786E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>1800</v>
       </c>
@@ -4097,7 +4164,7 @@
         <v>4.3010192056834554E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>1900</v>
       </c>
@@ -4130,7 +4197,7 @@
         <v>6.5078240278748228E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>2000</v>
       </c>
@@ -4163,7 +4230,7 @@
         <v>9.5640614249195954E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>37</v>
       </c>
@@ -4196,7 +4263,7 @@
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
@@ -4206,10 +4273,10 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -4239,7 +4306,7 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>298.14999999999998</v>
       </c>
@@ -4275,7 +4342,7 @@
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>400</v>
       </c>
@@ -4311,7 +4378,7 @@
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>500</v>
       </c>
@@ -4347,7 +4414,7 @@
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>600</v>
       </c>
@@ -4383,7 +4450,7 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>700</v>
       </c>
@@ -4419,7 +4486,7 @@
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>800</v>
       </c>
@@ -4455,7 +4522,7 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>900</v>
       </c>
@@ -4491,7 +4558,7 @@
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>1000</v>
       </c>
@@ -4527,7 +4594,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>1100</v>
       </c>
@@ -4563,7 +4630,7 @@
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>1200</v>
       </c>
@@ -4599,7 +4666,7 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>1300</v>
       </c>
@@ -4635,7 +4702,7 @@
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>1400</v>
       </c>
@@ -4671,7 +4738,7 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>1500</v>
       </c>
@@ -4707,7 +4774,7 @@
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>1600</v>
       </c>
@@ -4743,7 +4810,7 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>1700</v>
       </c>
@@ -4779,7 +4846,7 @@
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>1800</v>
       </c>
@@ -4815,7 +4882,7 @@
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>1900</v>
       </c>
@@ -4851,7 +4918,7 @@
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>2000</v>
       </c>
@@ -4887,7 +4954,7 @@
       <c r="M55" s="26"/>
       <c r="N55" s="26"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>37</v>
       </c>
@@ -4909,139 +4976,139 @@
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="E77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -5052,7 +5119,7 @@
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
@@ -5075,14 +5142,14 @@
       <c r="W80" s="22"/>
       <c r="X80" s="22"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
@@ -5090,7 +5157,7 @@
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -5098,7 +5165,7 @@
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -5106,93 +5173,93 @@
       <c r="H84" s="28"/>
       <c r="K84" s="22"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
       <c r="F86" s="22"/>
       <c r="H86" s="28"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
       <c r="F88" s="22"/>
       <c r="H88" s="28"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="F90" s="22"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G99" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="30" t="s">
         <v>32</v>
       </c>
@@ -5202,7 +5269,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="33"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="34"/>
       <c r="B105" s="35" t="s">
         <v>33</v>
@@ -5214,7 +5281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
         <v>5</v>
       </c>
@@ -5230,7 +5297,7 @@
         <v>8.9285951150525146E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="34" t="s">
         <v>6</v>
       </c>
@@ -5246,7 +5313,7 @@
         <v>2.8268533752557486E-7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="34" t="s">
         <v>4</v>
       </c>
@@ -5262,7 +5329,7 @@
         <v>4.9050730336184384E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="39" t="s">
         <v>7</v>
       </c>
@@ -5277,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="42" t="s">
         <v>38</v>
       </c>
@@ -5294,176 +5361,176 @@
         <v>5.7946693765028895E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="48"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="48"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="48"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="48"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="48"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="48"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="48"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="48"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="48"/>
       <c r="I119" s="55"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="48"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="48"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="48"/>
     </row>
-    <row r="125" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="37" x14ac:dyDescent="0.35">
       <c r="A125" s="29"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G127" s="28"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F128" s="49"/>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F129" s="49"/>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G130" s="28"/>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G133" s="28"/>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F134" s="49"/>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G136" s="28"/>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G140" s="28"/>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G143" s="28"/>
     </row>
-    <row r="147" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="29"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
       <c r="E150" s="50"/>
       <c r="F150" s="49"/>
       <c r="G150" s="22"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="50"/>
       <c r="B151" s="49"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="50"/>
       <c r="C152" s="28"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="51"/>
       <c r="C153" s="52"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B156" s="22"/>
       <c r="E156" s="50"/>
       <c r="F156" s="49"/>
       <c r="G156" s="22"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E157" s="50"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B158" s="22"/>
       <c r="E158" s="50"/>
       <c r="G158" s="28"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E159" s="51"/>
       <c r="G159" s="52"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161" s="22"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="22"/>
       <c r="D162" s="28"/>
       <c r="E162" s="28"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163" s="22"/>
       <c r="D163" s="22"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164" s="22"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="22"/>
       <c r="D165" s="28"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="22"/>
       <c r="D166" s="52"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" s="22"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" s="22"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="22"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="22"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="22"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172" s="22"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173" s="22"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175" s="22"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176" s="22"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="22"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
     </row>
@@ -5489,29 +5556,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="7" customWidth="1"/>
-    <col min="17" max="19" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" style="7" customWidth="1"/>
+    <col min="7" max="8" width="24.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="7" customWidth="1"/>
+    <col min="17" max="19" width="14.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="13.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5537,7 +5604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -5567,18 +5634,18 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -5586,34 +5653,34 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="7" cm="1">
         <f t="array" ref="B13">Tabella9314716[Frequenza1]*29979300000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
@@ -5624,7 +5691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>298.14999999999998</v>
       </c>
@@ -5635,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>400</v>
       </c>
@@ -5646,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>500</v>
       </c>
@@ -5657,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>600</v>
       </c>
@@ -5668,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>700</v>
       </c>
@@ -5679,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>800</v>
       </c>
@@ -5690,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>900</v>
       </c>
@@ -5701,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>1000</v>
       </c>
@@ -5712,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>1100</v>
       </c>
@@ -5723,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>1200</v>
       </c>
@@ -5734,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>1300</v>
       </c>
@@ -5745,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>1400</v>
       </c>
@@ -5756,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>1500</v>
       </c>
@@ -5767,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>1600</v>
       </c>
@@ -5778,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>1700</v>
       </c>
@@ -5789,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>1800</v>
       </c>
@@ -5800,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>1900</v>
       </c>
@@ -5811,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>2000</v>
       </c>
@@ -5822,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>37</v>
       </c>
@@ -5842,7 +5909,7 @@
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -5852,10 +5919,10 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
@@ -5863,11 +5930,11 @@
       <c r="I37" s="26"/>
       <c r="K37" s="26"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I38" s="26"/>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
@@ -5892,7 +5959,7 @@
       <c r="I39" s="26"/>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>298.14999999999998</v>
       </c>
@@ -5922,7 +5989,7 @@
       <c r="I40" s="26"/>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>400</v>
       </c>
@@ -5952,7 +6019,7 @@
       <c r="I41" s="26"/>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>500</v>
       </c>
@@ -5982,7 +6049,7 @@
       <c r="I42" s="26"/>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>600</v>
       </c>
@@ -6012,7 +6079,7 @@
       <c r="I43" s="26"/>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>700</v>
       </c>
@@ -6042,7 +6109,7 @@
       <c r="I44" s="26"/>
       <c r="K44" s="22"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>800</v>
       </c>
@@ -6072,7 +6139,7 @@
       <c r="I45" s="26"/>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>900</v>
       </c>
@@ -6102,7 +6169,7 @@
       <c r="I46" s="26"/>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>1000</v>
       </c>
@@ -6132,7 +6199,7 @@
       <c r="I47" s="26"/>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>1100</v>
       </c>
@@ -6162,7 +6229,7 @@
       <c r="I48" s="26"/>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>1200</v>
       </c>
@@ -6192,7 +6259,7 @@
       <c r="I49" s="26"/>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>1300</v>
       </c>
@@ -6222,7 +6289,7 @@
       <c r="I50" s="26"/>
       <c r="K50" s="22"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>1400</v>
       </c>
@@ -6252,7 +6319,7 @@
       <c r="I51" s="26"/>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>1500</v>
       </c>
@@ -6282,7 +6349,7 @@
       <c r="I52" s="26"/>
       <c r="K52" s="22"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>1600</v>
       </c>
@@ -6312,7 +6379,7 @@
       <c r="I53" s="26"/>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>1700</v>
       </c>
@@ -6342,7 +6409,7 @@
       <c r="I54" s="26"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>1800</v>
       </c>
@@ -6373,7 +6440,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="26"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>1900</v>
       </c>
@@ -6403,7 +6470,7 @@
       <c r="I56" s="26"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>2000</v>
       </c>
@@ -6433,7 +6500,7 @@
       <c r="I57" s="26"/>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="27" t="s">
         <v>37</v>
       </c>
@@ -6453,23 +6520,23 @@
       <c r="I58" s="26"/>
       <c r="K58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E59" s="22"/>
       <c r="I59" s="26"/>
       <c r="K59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I60" s="26"/>
       <c r="K60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
       <c r="I61" s="26"/>
       <c r="K61" s="22"/>
     </row>
-    <row r="62" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="37.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29" t="s">
         <v>31</v>
       </c>
@@ -6481,7 +6548,7 @@
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="30" t="s">
         <v>32</v>
       </c>
@@ -6492,7 +6559,7 @@
       <c r="D63" s="33"/>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
         <v>33</v>
@@ -6505,7 +6572,7 @@
       </c>
       <c r="G64" s="22"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>5</v>
       </c>
@@ -6523,7 +6590,7 @@
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>6</v>
       </c>
@@ -6541,7 +6608,7 @@
       <c r="E66" s="4"/>
       <c r="G66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>4</v>
       </c>
@@ -6559,7 +6626,7 @@
       <c r="E67" s="4"/>
       <c r="G67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="39" t="s">
         <v>7</v>
       </c>
@@ -6577,7 +6644,7 @@
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="42" t="s">
         <v>38</v>
       </c>
@@ -6596,13 +6663,13 @@
       <c r="E69" s="4"/>
       <c r="G69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.35">
       <c r="C70" s="28"/>
       <c r="E70" s="4"/>
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
@@ -6612,170 +6679,170 @@
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E89" s="3"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
       <c r="G90" s="22"/>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
       <c r="G91" s="22"/>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
       <c r="G93" s="22"/>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
       <c r="G94" s="22"/>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
       <c r="G96" s="22"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
       <c r="G97" s="22"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="46"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G99" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="48"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F128" s="49"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F129" s="49"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F134" s="49"/>
     </row>
-    <row r="147" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" spans="1:8" ht="37" x14ac:dyDescent="0.35">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E149" s="28"/>
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B150" s="22"/>
       <c r="E150" s="50"/>
       <c r="F150" s="49"/>
       <c r="G150" s="22"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="26"/>
       <c r="B151" s="22"/>
       <c r="C151" s="26"/>
       <c r="D151" s="50"/>
       <c r="F151" s="49"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B152" s="26"/>
       <c r="E152" s="50"/>
       <c r="G152" s="28"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E153" s="51"/>
       <c r="G153" s="52"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B156" s="22"/>
       <c r="E156" s="50"/>
       <c r="F156" s="49"/>
       <c r="G156" s="22"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E157" s="50"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B158" s="22"/>
       <c r="E158" s="50"/>
       <c r="G158" s="28"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E159" s="51"/>
       <c r="G159" s="52"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161" s="22"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="22"/>
       <c r="D162" s="28"/>
       <c r="E162" s="28"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163" s="22"/>
       <c r="D163" s="22"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164" s="22"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="22"/>
       <c r="D165" s="28"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="22"/>
       <c r="D166" s="52"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" s="22"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" s="22"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="22"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="22"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="22"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172" s="22"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173" s="22"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B174" s="22"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175" s="22"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176" s="22"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B177" s="22"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B178" s="22"/>
     </row>
   </sheetData>
@@ -6795,25 +6862,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5A6092-CE1D-418E-932B-FD9C6DCA3622}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="7" max="7" width="11.7265625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D1" s="42" t="s">
         <v>53</v>
       </c>
@@ -6824,7 +6891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="56">
         <v>6.0221410000000001E+23</v>
       </c>
@@ -6835,14 +6902,14 @@
         <v>101325</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>46</v>
       </c>
@@ -6853,7 +6920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -6864,7 +6931,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -6872,8 +6939,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="58" t="s">
         <v>32</v>
       </c>
@@ -6902,7 +6969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>298.14999999999998</v>
       </c>
@@ -6935,7 +7002,7 @@
         <v>4.0625758633111278E-26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>400</v>
       </c>
@@ -6968,7 +7035,7 @@
         <v>5.4503784850727862E-26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>500</v>
       </c>
@@ -7001,7 +7068,7 @@
         <v>6.8129731063409828E-26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>600</v>
       </c>
@@ -7034,7 +7101,7 @@
         <v>8.1755677276091782E-26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>700</v>
       </c>
@@ -7067,7 +7134,7 @@
         <v>9.5381623488773759E-26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>800</v>
       </c>
@@ -7100,7 +7167,7 @@
         <v>1.0900756970145572E-25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>900</v>
       </c>
@@ -7133,7 +7200,7 @@
         <v>1.2263351591413768E-25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>1000</v>
       </c>
@@ -7166,7 +7233,7 @@
         <v>1.3625946212681966E-25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>1100</v>
       </c>
@@ -7199,7 +7266,7 @@
         <v>1.4988540833950161E-25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>1200</v>
       </c>
@@ -7232,7 +7299,7 @@
         <v>1.6351135455218356E-25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>1300</v>
       </c>
@@ -7265,7 +7332,7 @@
         <v>1.7713730076486554E-25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>1400</v>
       </c>
@@ -7298,7 +7365,7 @@
         <v>1.9076324697754752E-25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>1500</v>
       </c>
@@ -7331,7 +7398,7 @@
         <v>2.0438919319022949E-25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>1600</v>
       </c>
@@ -7364,7 +7431,7 @@
         <v>2.1801513940291145E-25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>1700</v>
       </c>
@@ -7397,7 +7464,7 @@
         <v>2.316410856155934E-25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>1800</v>
       </c>
@@ -7430,7 +7497,7 @@
         <v>2.4526703182827536E-25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>1900</v>
       </c>
@@ -7463,7 +7530,7 @@
         <v>2.5889297804095731E-25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>2000</v>
       </c>
@@ -7496,8 +7563,8 @@
         <v>2.7251892425363931E-25</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="69" t="s">
         <v>48</v>
       </c>
@@ -7511,7 +7578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="67">
         <v>-40.526138247299997</v>
       </c>
@@ -7526,21 +7593,26 @@
         <v>0.17853056750900009</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K61" s="21"/>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K63" s="22"/>
     </row>
-    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:11" x14ac:dyDescent="0.35">
       <c r="K66" s="22"/>
     </row>
-    <row r="75" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
     </row>
